--- a/MODELO_Resumo_Custos.xlsx
+++ b/MODELO_Resumo_Custos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\ORCAMENTOS_LE_V2\ORCAMENTOS\Dep._Orcamentos\2025\250001_JF_VIVA\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\ORCAMENTOS_LE\ORCAMENTOS_LE\orcamentos_lanca_encanto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5005C247-E3CE-40F8-84BE-C4470760EF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75AE68D-BB57-45AC-B3CD-9FE50D8A24AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1665" windowWidth="37755" windowHeight="18525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo Geral" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>Valor (€)</t>
+  </si>
+  <si>
+    <t>nao_stock</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
@@ -1092,15 +1095,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1139,6 +1157,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
